--- a/va_facility_data_2025-02-20/Farmington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Farmington%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Farmington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Farmington%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra07a0a592a0f4a1198d968a719987fb9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfb6a943a049e44e8a3e05b3a7b8e895d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb3c176ef12854b3c896fc1c6a9287dcc"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rcf74c1dfd6a94397bdeb19d1230b2c93"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdd1afb4092504aefbf6462792a563f02"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf406a074dc4641248b4fb698fc74cd44"/>
   </x:sheets>
 </x:workbook>
 </file>
